--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_04.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_04.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Akemi Yoshida</t>
+          <t>Hideki Sasaki</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Akemi Yoshida</t>
+          <t>Hideki Sasaki</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Akemi Yoshida</t>
+          <t>Hideki Sasaki</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Akemi Yoshida</t>
+          <t>Hideki Sasaki</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Akemi Yoshida</t>
+          <t>Hideki Sasaki</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Akemi Yoshida</t>
+          <t>Hideki Sasaki</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Akemi Yoshida</t>
+          <t>Hideki Sasaki</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Akemi Yoshida</t>
+          <t>Hideki Sasaki</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Akemi Yoshida</t>
+          <t>Hideki Sasaki</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Akemi Yoshida</t>
+          <t>Hideki Sasaki</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Akemi Yoshida</t>
+          <t>Hideki Sasaki</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Akemi Yoshida</t>
+          <t>Hideki Sasaki</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Akemi Yoshida</t>
+          <t>Hideki Sasaki</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Akemi Yoshida</t>
+          <t>Hideki Sasaki</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Akemi Yoshida</t>
+          <t>Hideki Sasaki</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
